--- a/Dagskrá.xlsx
+++ b/Dagskrá.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/884c6fd4e9c2b4f2/Documents/f_haskoli/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EAC20A-716C-40B4-9A3E-579C1F623241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{86EAC20A-716C-40B4-9A3E-579C1F623241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FC8EB52-44B1-496F-9002-371371D9942B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4770" yWindow="1940" windowWidth="14400" windowHeight="8210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1021,6 +1022,10 @@
     </a>
   </bag>
 </FeaturePropertyBags>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1346,7 +1351,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1391,7 +1396,7 @@
       <c r="P1" s="76"/>
       <c r="Q1" s="77">
         <f>(COUNTIF(C3:C26, TRUE)+COUNTIF(E3:E26, TRUE)+COUNTIF(G3:G26, TRUE)+COUNTIF(J3:J26, TRUE))/COUNTA(C3:C26,E3:E26,G3:G26,J3:J26)</f>
-        <v>8.5714285714285715E-2</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="R1" s="78"/>
     </row>
@@ -1506,26 +1511,26 @@
         <v>20</v>
       </c>
       <c r="C5" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="47" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="32" t="s">
         <v>22</v>
@@ -1549,14 +1554,14 @@
       <c r="E6" s="27"/>
       <c r="F6" s="28"/>
       <c r="G6" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="48" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="24"/>
       <c r="J6" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="56" t="s">
         <v>26</v>
@@ -1579,26 +1584,26 @@
         <v>28</v>
       </c>
       <c r="C7" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="47" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="33" t="s">
         <v>30</v>
@@ -1615,14 +1620,14 @@
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
       <c r="G8" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="48" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="24"/>
       <c r="J8" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="55" t="s">
         <v>32</v>

--- a/Dagskrá.xlsx
+++ b/Dagskrá.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/884c6fd4e9c2b4f2/Documents/f_haskoli/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{86EAC20A-716C-40B4-9A3E-579C1F623241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FC8EB52-44B1-496F-9002-371371D9942B}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{86EAC20A-716C-40B4-9A3E-579C1F623241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B44F78D-A3DA-4697-939E-C2C7DABB0CB3}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4770" yWindow="1940" windowWidth="14400" windowHeight="8210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1351,7 +1350,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1396,7 +1395,7 @@
       <c r="P1" s="76"/>
       <c r="Q1" s="77">
         <f>(COUNTIF(C3:C26, TRUE)+COUNTIF(E3:E26, TRUE)+COUNTIF(G3:G26, TRUE)+COUNTIF(J3:J26, TRUE))/COUNTA(C3:C26,E3:E26,G3:G26,J3:J26)</f>
-        <v>0.25714285714285712</v>
+        <v>0.38571428571428573</v>
       </c>
       <c r="R1" s="78"/>
     </row>
@@ -1650,26 +1649,26 @@
         <v>34</v>
       </c>
       <c r="C9" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="47" t="s">
         <v>13</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="33" t="s">
         <v>36</v>
@@ -1687,14 +1686,14 @@
       <c r="E10" s="27"/>
       <c r="F10" s="28"/>
       <c r="G10" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="48" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="56" t="s">
         <v>39</v>
@@ -1710,13 +1709,13 @@
         <v>40</v>
       </c>
       <c r="C11" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>41</v>
@@ -1752,7 +1751,7 @@
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="55" t="s">
         <v>44</v>

--- a/Dagskrá.xlsx
+++ b/Dagskrá.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/884c6fd4e9c2b4f2/Documents/f_haskoli/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{86EAC20A-716C-40B4-9A3E-579C1F623241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B44F78D-A3DA-4697-939E-C2C7DABB0CB3}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{86EAC20A-716C-40B4-9A3E-579C1F623241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8267584B-63F1-418A-B967-EE08E4BE8A36}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1350,7 +1350,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1395,7 +1395,7 @@
       <c r="P1" s="76"/>
       <c r="Q1" s="77">
         <f>(COUNTIF(C3:C26, TRUE)+COUNTIF(E3:E26, TRUE)+COUNTIF(G3:G26, TRUE)+COUNTIF(J3:J26, TRUE))/COUNTA(C3:C26,E3:E26,G3:G26,J3:J26)</f>
-        <v>0.38571428571428573</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="R1" s="78"/>
     </row>
@@ -1721,14 +1721,14 @@
         <v>41</v>
       </c>
       <c r="G11" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="47" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="33" t="s">
         <v>42</v>
@@ -1744,7 +1744,7 @@
       <c r="E12" s="27"/>
       <c r="F12" s="28"/>
       <c r="G12" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="48" t="s">
         <v>43</v>
@@ -1767,13 +1767,13 @@
         <v>45</v>
       </c>
       <c r="C13" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>46</v>

--- a/Dagskrá.xlsx
+++ b/Dagskrá.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/884c6fd4e9c2b4f2/Documents/f_haskoli/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{86EAC20A-716C-40B4-9A3E-579C1F623241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8267584B-63F1-418A-B967-EE08E4BE8A36}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{86EAC20A-716C-40B4-9A3E-579C1F623241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ED1DBF3-DBBF-498D-8670-B67A16C62E95}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1350,7 +1351,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1395,7 +1396,7 @@
       <c r="P1" s="76"/>
       <c r="Q1" s="77">
         <f>(COUNTIF(C3:C26, TRUE)+COUNTIF(E3:E26, TRUE)+COUNTIF(G3:G26, TRUE)+COUNTIF(J3:J26, TRUE))/COUNTA(C3:C26,E3:E26,G3:G26,J3:J26)</f>
-        <v>0.45714285714285713</v>
+        <v>0.55714285714285716</v>
       </c>
       <c r="R1" s="78"/>
     </row>
@@ -1779,14 +1780,14 @@
         <v>46</v>
       </c>
       <c r="G13" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="47" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="33" t="s">
         <v>47</v>
@@ -1804,14 +1805,14 @@
       <c r="E14" s="27"/>
       <c r="F14" s="28"/>
       <c r="G14" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="48" t="s">
         <v>49</v>
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="56" t="s">
         <v>50</v>
@@ -1827,13 +1828,13 @@
         <v>51</v>
       </c>
       <c r="C15" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="29" t="s">
         <v>52</v>
@@ -1927,7 +1928,7 @@
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="55" t="s">
         <v>60</v>

--- a/Dagskrá.xlsx
+++ b/Dagskrá.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/884c6fd4e9c2b4f2/Documents/f_haskoli/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{86EAC20A-716C-40B4-9A3E-579C1F623241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ED1DBF3-DBBF-498D-8670-B67A16C62E95}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{5D0C495A-A411-42EB-B915-0CB9EF8AA671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E65E1AB-27CA-48AF-8BCC-E2760AFFF45D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
   <si>
     <t>Forritun - Dagskrá Haust 2025</t>
   </si>
@@ -57,10 +56,7 @@
     <t>Þriðjudagur</t>
   </si>
   <si>
-    <t>Miðvikudagur /</t>
-  </si>
-  <si>
-    <t>/ Fimmtudagur</t>
+    <t>Fimmtudagur</t>
   </si>
   <si>
     <t>Föstudagur</t>
@@ -151,7 +147,7 @@
     <t>Verkefnatími 8</t>
   </si>
   <si>
-    <t>Module 3: Data structures</t>
+    <t>Module 3: Working with data</t>
   </si>
   <si>
     <t>Weekly Quiz 4</t>
@@ -205,24 +201,27 @@
     <t>Weekly Quiz 7</t>
   </si>
   <si>
+    <t>Assignment 3</t>
+  </si>
+  <si>
     <t>6-10. okt</t>
   </si>
   <si>
+    <t>Prófsundirbúningstími</t>
+  </si>
+  <si>
     <t>Verkefnatími 15</t>
   </si>
   <si>
     <t>Module 5: Files</t>
   </si>
   <si>
+    <t>Weekly Quiz 8</t>
+  </si>
+  <si>
     <t>Midterm Exam</t>
   </si>
   <si>
-    <t>Weekly Quiz 8</t>
-  </si>
-  <si>
-    <t>Assignment 3</t>
-  </si>
-  <si>
     <t>13-17. okt</t>
   </si>
   <si>
@@ -272,9 +271,6 @@
   </si>
   <si>
     <t>Verkefnatími 22</t>
-  </si>
-  <si>
-    <t>Prófsundirbúningstími</t>
   </si>
   <si>
     <t>Prófsundirbúningur, ekkert nýtt efni</t>
@@ -305,7 +301,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +384,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -433,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -712,11 +717,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -787,12 +816,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
       <extLst>
@@ -809,15 +832,6 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -849,7 +863,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
       <extLst>
@@ -879,38 +892,86 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -981,6 +1042,8 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,10 +1085,6 @@
     </a>
   </bag>
 </FeaturePropertyBags>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1348,10 +1407,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1361,10 +1420,10 @@
     <col min="3" max="3" width="4.7265625" style="11" customWidth="1"/>
     <col min="4" max="4" width="19.81640625" customWidth="1"/>
     <col min="5" max="5" width="6.1796875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
     <col min="7" max="7" width="5.81640625" style="11" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" customWidth="1"/>
+    <col min="9" max="9" width="3.453125" customWidth="1"/>
     <col min="10" max="10" width="6" style="12" customWidth="1"/>
     <col min="11" max="11" width="19.81640625" customWidth="1"/>
     <col min="12" max="12" width="3.453125" customWidth="1"/>
@@ -1375,60 +1434,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="66"/>
-      <c r="O1" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="77">
-        <f>(COUNTIF(C3:C26, TRUE)+COUNTIF(E3:E26, TRUE)+COUNTIF(G3:G26, TRUE)+COUNTIF(J3:J26, TRUE))/COUNTA(C3:C26,E3:E26,G3:G26,J3:J26)</f>
-        <v>0.55714285714285716</v>
-      </c>
-      <c r="R1" s="78"/>
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="76"/>
+      <c r="O1" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="87">
+        <f>(COUNTIF(C3:C27, TRUE)+COUNTIF(E3:E27, TRUE)+COUNTIF(G3:G27, TRUE)+COUNTIF(J3:J27, TRUE))/COUNTA(C3:C27,E3:E27,G3:G27,J3:J27)</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R1" s="88"/>
     </row>
     <row r="2" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43" t="s">
+      <c r="D2" s="78"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43" t="s">
+      <c r="G2" s="35"/>
+      <c r="H2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="98"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="44" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="40" t="s">
         <v>8</v>
-      </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -1436,43 +1493,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="38" t="s">
+      <c r="E3" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="28" t="s">
+      <c r="G3" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="47" t="s">
+      <c r="I3" s="63"/>
+      <c r="J3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>14</v>
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="81"/>
     </row>
     <row r="4" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
@@ -1480,224 +1537,224 @@
       <c r="C4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="49"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="14"/>
       <c r="M4" s="15"/>
-      <c r="O4" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="74"/>
+      <c r="O4" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="84"/>
     </row>
     <row r="5" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="29" t="s">
+      <c r="G5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="63"/>
+      <c r="J5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="27" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>22</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="74"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
     </row>
     <row r="6" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="27"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="61"/>
+      <c r="J6" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="48" t="s">
         <v>25</v>
-      </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="56" t="s">
-        <v>26</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="15"/>
-      <c r="O6" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="34"/>
+      <c r="O6" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="29"/>
     </row>
     <row r="7" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="29" t="s">
+      <c r="G7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="63"/>
+      <c r="J7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="28" t="s">
         <v>29</v>
-      </c>
-      <c r="G7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>30</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="16"/>
-      <c r="S7" s="34"/>
+      <c r="S7" s="29"/>
     </row>
     <row r="8" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="27"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="J8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="47" t="s">
         <v>31</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="55" t="s">
-        <v>32</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="15"/>
-      <c r="O8" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="34"/>
+      <c r="O8" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="29"/>
     </row>
     <row r="9" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="29" t="s">
+      <c r="G9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="63"/>
+      <c r="J9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="28" t="s">
         <v>35</v>
-      </c>
-      <c r="G9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>36</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="J10" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="48" t="s">
         <v>38</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" s="56" t="s">
-        <v>39</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="15"/>
@@ -1707,32 +1764,32 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="29" t="s">
+      <c r="G11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="63"/>
+      <c r="J11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="28" t="s">
         <v>41</v>
-      </c>
-      <c r="G11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>42</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="16"/>
@@ -1740,22 +1797,22 @@
     <row r="12" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="61"/>
+      <c r="J12" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="47" t="s">
         <v>43</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" s="55" t="s">
-        <v>44</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="15"/>
@@ -1765,57 +1822,57 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="29" t="s">
+      <c r="G13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="63"/>
+      <c r="J13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="28" t="s">
         <v>46</v>
-      </c>
-      <c r="G13" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>47</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="61"/>
+      <c r="J14" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="48" t="s">
         <v>49</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" s="56" t="s">
-        <v>50</v>
       </c>
       <c r="L14" s="14"/>
       <c r="M14" s="15"/>
@@ -1825,54 +1882,58 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="29" t="s">
+      <c r="G15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="63"/>
+      <c r="J15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="35"/>
+      <c r="L15" s="30"/>
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="48" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="67"/>
+      <c r="J16" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="17"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="15"/>
     </row>
     <row r="17" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
@@ -1884,337 +1945,354 @@
       <c r="C17" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="31" t="s">
+      <c r="D17" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="15" t="s">
+      <c r="G17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="62"/>
+      <c r="J17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="28" t="s">
         <v>57</v>
+      </c>
+      <c r="L17" s="57"/>
+      <c r="M17" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="54" t="s">
-        <v>58</v>
-      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" s="55" t="s">
+      <c r="I18" s="64"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+      <c r="I19" s="50"/>
+      <c r="J19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>9</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="29" t="s">
+      <c r="C20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" s="33" t="s">
+      <c r="G20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="66"/>
+      <c r="J20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="L19" s="35"/>
-      <c r="M19" s="16" t="s">
+      <c r="L20" s="51"/>
+      <c r="M20" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="48" t="s">
+    <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" s="57" t="s">
+      <c r="I21" s="61"/>
+      <c r="J21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="L20" s="36"/>
-      <c r="M20" s="17"/>
-    </row>
-    <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+      <c r="L21" s="31"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
         <v>10</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="28" t="s">
+      <c r="C22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" s="31" t="s">
+      <c r="G22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="63"/>
+      <c r="J22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="15"/>
-    </row>
-    <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="48" t="s">
+      <c r="L22" s="13"/>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" s="55" t="s">
+      <c r="I23" s="61"/>
+      <c r="J23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="15"/>
-    </row>
-    <row r="23" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+      <c r="L23" s="14"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>11</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="29" t="s">
+      <c r="C24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" s="33" t="s">
+      <c r="G24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="63"/>
+      <c r="J24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="16"/>
-    </row>
-    <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="48" t="s">
+      <c r="L24" s="13"/>
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="15"/>
-    </row>
-    <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+      <c r="I25" s="61"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="15"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>12</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="29" t="s">
+      <c r="C26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" s="33" t="s">
+      <c r="G26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="63"/>
+      <c r="J26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="79" t="s">
+    </row>
+    <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="60" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="48" t="s">
+      <c r="I27" s="61"/>
+      <c r="J27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="80"/>
-    </row>
-    <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
-        <v>13</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="17" t="s">
-        <v>84</v>
-      </c>
+      <c r="L27" s="14"/>
+      <c r="M27" s="90"/>
     </row>
     <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="63"/>
+        <v>81</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
       <c r="L28" s="7"/>
       <c r="M28" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="17" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C27:K28"/>
+  <mergeCells count="36">
+    <mergeCell ref="C28:K29"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="O3:R3"/>
@@ -2222,9 +2300,34 @@
     <mergeCell ref="O5:R5"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M26:M27"/>
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="O6:R6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
